--- a/Output/raw_results/dap_population_groups.xlsx
+++ b/Output/raw_results/dap_population_groups.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="159">
   <si>
     <t>Indicator Group / Sector</t>
   </si>
@@ -313,198 +313,87 @@
     <t>eight_dim_vul</t>
   </si>
   <si>
-    <t>Economic</t>
-  </si>
-  <si>
-    <t>% of HH with experiencing economic vulnerabilities</t>
-  </si>
-  <si>
-    <t>vul_economic</t>
-  </si>
-  <si>
-    <t>Basic Services</t>
-  </si>
-  <si>
-    <t>% of HH with experiencing basic services vulnerabilities</t>
-  </si>
-  <si>
-    <t>vul_basic_needs</t>
-  </si>
-  <si>
-    <t>Protection</t>
-  </si>
-  <si>
-    <t>% of HH with experiencing protection vulnerabilities</t>
-  </si>
-  <si>
-    <t>vul_protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education and Employment </t>
-  </si>
-  <si>
     <t>edu_liv_vul</t>
   </si>
   <si>
-    <t>Education and Food</t>
-  </si>
-  <si>
     <t>edu_food_vul</t>
   </si>
   <si>
-    <t>Education and Protection</t>
-  </si>
-  <si>
     <t>edu_prot_vul</t>
   </si>
   <si>
-    <t>Education and Health</t>
-  </si>
-  <si>
     <t>edu_hlth_vul</t>
   </si>
   <si>
-    <t>Education and Shelter</t>
-  </si>
-  <si>
     <t>edu_shltr_vul</t>
   </si>
   <si>
-    <t>Education and Wash</t>
-  </si>
-  <si>
     <t>edu_wash_vul</t>
   </si>
   <si>
-    <t>Education and Monetary</t>
-  </si>
-  <si>
     <t>edu_pov_vul</t>
   </si>
   <si>
-    <t>Livelihoods and Food</t>
-  </si>
-  <si>
     <t>liv_food_vul</t>
   </si>
   <si>
-    <t>Livelihods and Protection</t>
-  </si>
-  <si>
     <t>liv_prot_vul</t>
   </si>
   <si>
-    <t>Livelihoods and Health</t>
-  </si>
-  <si>
     <t>liv_hlth_vul</t>
   </si>
   <si>
-    <t>Livelihoods and Shelter</t>
-  </si>
-  <si>
     <t>liv_shltr_vul</t>
   </si>
   <si>
-    <t>Livelihoods and Wash</t>
-  </si>
-  <si>
     <t>liv_wash_vul</t>
   </si>
   <si>
-    <t>Livelihoods and Monetary</t>
-  </si>
-  <si>
     <t>liv_pov_vul</t>
   </si>
   <si>
-    <t>Food and Protection</t>
-  </si>
-  <si>
     <t>food_prt_vul</t>
   </si>
   <si>
-    <t>Food and Health</t>
-  </si>
-  <si>
     <t>food_hlth_vul</t>
   </si>
   <si>
-    <t>Food and Shelther</t>
-  </si>
-  <si>
     <t>food_shltr_vul</t>
   </si>
   <si>
-    <t>Food and Wash</t>
-  </si>
-  <si>
     <t>food_wash_vul</t>
   </si>
   <si>
-    <t>Food and Monetary</t>
-  </si>
-  <si>
     <t>food_pov_vul</t>
   </si>
   <si>
-    <t>Protection and Health</t>
-  </si>
-  <si>
     <t>prot_hlth_vul</t>
   </si>
   <si>
-    <t>Protection and Shelther</t>
-  </si>
-  <si>
     <t>prot_shltr_vul</t>
   </si>
   <si>
-    <t>Protection and Wash</t>
-  </si>
-  <si>
     <t>prot_wash_vul</t>
   </si>
   <si>
-    <t>Protection and Monetary</t>
-  </si>
-  <si>
     <t>prot_pov_vul</t>
   </si>
   <si>
-    <t>Health and Shelther</t>
-  </si>
-  <si>
     <t>hlth_shltr_vul</t>
   </si>
   <si>
-    <t>Health and Wash</t>
-  </si>
-  <si>
     <t>hlth_wash_vul</t>
   </si>
   <si>
-    <t>Health and Monetary</t>
-  </si>
-  <si>
     <t>hlth_pov_vul</t>
   </si>
   <si>
-    <t>Shelther and Wash</t>
-  </si>
-  <si>
     <t>shltr_wash_vul</t>
   </si>
   <si>
-    <t>Shelther and Monetary</t>
-  </si>
-  <si>
     <t>shltr_pov_vul</t>
   </si>
   <si>
-    <t>Wash and Monetary</t>
-  </si>
-  <si>
     <t>wash_pov_vul</t>
   </si>
   <si>
@@ -524,6 +413,90 @@
   </si>
   <si>
     <t>Population Reference</t>
+  </si>
+  <si>
+    <t>Education and Employment Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Education and Food Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Education and Protection Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Education and Health Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Education and Shelter Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Education and Wash Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Education and Monetary Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Livelihoods and Food Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Livelihods and Protection Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Livelihoods and Health Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Livelihoods and Shelter Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Livelihoods and Wash Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Livelihoods and Monetary Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Food and Protection Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Food and Health Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Food and Shelther Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Food and Wash Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Food and Monetary Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Protection and Health Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Protection and Shelther Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Protection and Wash Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Protection and Monetary Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Health and Shelther Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Health and Wash Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Health and Monetary Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Shelther and Wash Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Shelther and Monetary Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Wash and Monetary Vulnerabilities</t>
   </si>
 </sst>
 </file>
@@ -1390,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1451,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1474,7 +1447,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1497,7 +1470,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1520,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1534,16 +1507,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1566,7 +1539,7 @@
         <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1589,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1606,13 +1579,13 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1635,7 +1608,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1658,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1681,7 +1654,7 @@
         <v>35</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1704,7 +1677,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1727,7 +1700,7 @@
         <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1750,7 +1723,7 @@
         <v>42</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1773,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1796,7 +1769,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1819,7 +1792,7 @@
         <v>49</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1842,7 +1815,7 @@
         <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1865,7 +1838,7 @@
         <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1888,7 +1861,7 @@
         <v>55</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1911,7 +1884,7 @@
         <v>57</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1934,7 +1907,7 @@
         <v>60</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1957,7 +1930,7 @@
         <v>62</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1980,7 +1953,7 @@
         <v>64</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -2003,7 +1976,7 @@
         <v>66</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -2026,7 +1999,7 @@
         <v>70</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2049,7 +2022,7 @@
         <v>73</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2072,7 +2045,7 @@
         <v>75</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -2095,7 +2068,7 @@
         <v>78</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2118,7 +2091,7 @@
         <v>80</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2141,7 +2114,7 @@
         <v>82</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2164,7 +2137,7 @@
         <v>84</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2187,7 +2160,7 @@
         <v>86</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2210,7 +2183,7 @@
         <v>88</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2233,7 +2206,7 @@
         <v>90</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2256,7 +2229,7 @@
         <v>92</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2279,7 +2252,7 @@
         <v>94</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2302,7 +2275,7 @@
         <v>96</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2316,16 +2289,16 @@
         <v>76</v>
       </c>
       <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
         <v>97</v>
       </c>
-      <c r="C40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" t="s">
-        <v>99</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -2339,16 +2312,16 @@
         <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -2362,16 +2335,16 @@
         <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -2385,16 +2358,16 @@
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2408,16 +2381,16 @@
         <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -2431,16 +2404,16 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -2454,16 +2427,16 @@
         <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2477,16 +2450,16 @@
         <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2500,16 +2473,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G48" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -2523,16 +2496,16 @@
         <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2546,16 +2519,16 @@
         <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G50" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -2569,16 +2542,16 @@
         <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G51" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -2592,16 +2565,16 @@
         <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -2615,16 +2588,16 @@
         <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G53" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -2638,16 +2611,16 @@
         <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G54" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -2661,16 +2634,16 @@
         <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2684,16 +2657,16 @@
         <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -2707,16 +2680,16 @@
         <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -2730,16 +2703,16 @@
         <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G58" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -2753,16 +2726,16 @@
         <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G59" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -2776,16 +2749,16 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
@@ -2799,16 +2772,16 @@
         <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G61" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -2822,16 +2795,16 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -2845,16 +2818,16 @@
         <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -2868,16 +2841,16 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G64" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I64" t="s">
         <v>12</v>
@@ -2891,16 +2864,16 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G65" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -2914,16 +2887,16 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I66" t="s">
         <v>12</v>
@@ -2937,90 +2910,21 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G67" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" t="s">
-        <v>157</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" t="s">
-        <v>158</v>
-      </c>
-      <c r="G69" t="s">
-        <v>159</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I69" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" t="s">
-        <v>160</v>
-      </c>
-      <c r="G70" t="s">
-        <v>161</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I70" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" t="s">
         <v>13</v>
       </c>
     </row>
